--- a/LOGS/39b47cb4-af4d-4cc7-ac2a-0c79a3780657/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/39b47cb4-af4d-4cc7-ac2a-0c79a3780657/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -26,13 +26,15 @@
     <sheet name="23__660e0c35-32e1-3b" sheetId="17" r:id="rId17"/>
     <sheet name="25__fefa94a6-9f06-3a" sheetId="18" r:id="rId18"/>
     <sheet name="26__77f9a90f-5d0c-3b" sheetId="19" r:id="rId19"/>
+    <sheet name="4__c09fe481-4d79-3ba" sheetId="20" r:id="rId20"/>
+    <sheet name="6__45029265-bfb6-3df" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="107">
   <si>
     <t>rows</t>
   </si>
@@ -46,6 +48,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>None Cash at bank</t>
   </si>
   <si>
@@ -58,6 +63,9 @@
     <t>Consolidated $</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>None Trade receivables</t>
   </si>
   <si>
@@ -67,15 +75,27 @@
     <t>None Less: Allowance for expected credit losses</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>None Income tax refund due</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>None Contract assets work in progress</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>None Capitalised contract costs</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>None Prepayments</t>
   </si>
   <si>
@@ -88,6 +108,9 @@
     <t>Total Total</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>None 2022 Balance at 1 April 2022</t>
   </si>
   <si>
@@ -124,6 +147,9 @@
     <t>Low value assets (Plant and Total $</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>None Leasehold improvements at cost</t>
   </si>
   <si>
@@ -148,9 +174,15 @@
     <t>None Right-of-use assets</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>None Goodwill - on consolidation</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Deferred tax asset comprises temporary differences attributable to: Tax losses</t>
   </si>
   <si>
@@ -202,6 +234,9 @@
     <t>Consolidated</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>None Trade payables</t>
   </si>
   <si>
@@ -223,18 +258,30 @@
     <t>None GST payable</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>None Bank overdraft</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>None Annual leave</t>
   </si>
   <si>
     <t>None Long service leave</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>None Borrowings</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>None Lease liabilities</t>
   </si>
   <si>
@@ -256,9 +303,15 @@
     <t>Future lease payments are due as follows: Total</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>None Ordinary shares fully paid 7565407835 5065407835</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>None Retained profits at the beginning of the financial year</t>
   </si>
   <si>
@@ -266,6 +319,42 @@
   </si>
   <si>
     <t>None Retained profits at the end of the financial year</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>None Service revenue</t>
+  </si>
+  <si>
+    <t>None Minor works</t>
+  </si>
+  <si>
+    <t>None Revenue</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Deferred tax - origination and reversal of temporary differences Aggregate income tax benefit</t>
+  </si>
+  <si>
+    <t>Total increase in deferred tax assets (note 16)</t>
+  </si>
+  <si>
+    <t>Total Loss before income tax benefit</t>
+  </si>
+  <si>
+    <t>Total Tax at the statutory tax rate of 30%</t>
+  </si>
+  <si>
+    <t>Total Non-deductible expenses</t>
+  </si>
+  <si>
+    <t>Total Income tax benefit</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -623,13 +712,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,13 +731,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -656,13 +748,16 @@
       <c r="D2">
         <v>1643586</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -670,13 +765,16 @@
       <c r="D3">
         <v>2170000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -684,13 +782,16 @@
       <c r="D4">
         <v>3813586</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -698,13 +799,16 @@
       <c r="D5">
         <v>43537</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -712,19 +816,25 @@
       <c r="D6">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>1543537</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -734,13 +844,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,13 +863,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -767,13 +880,16 @@
       <c r="D2">
         <v>4919097</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -781,13 +897,16 @@
       <c r="D3">
         <v>-511861</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -795,13 +914,16 @@
       <c r="D4">
         <v>4407236</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -809,13 +931,16 @@
       <c r="D5">
         <v>3760498</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -823,19 +948,25 @@
       <c r="D6">
         <v>-1391972</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>2368526</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -845,13 +976,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,13 +995,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -878,19 +1012,25 @@
       <c r="D2">
         <v>1627273</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>1627273</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -900,13 +1040,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,13 +1059,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -933,13 +1076,16 @@
       <c r="D2">
         <v>1574562</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -947,13 +1093,16 @@
       <c r="D3">
         <v>165065</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -961,13 +1110,16 @@
       <c r="D4">
         <v>-1272783</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -975,13 +1127,16 @@
       <c r="D5">
         <v>394509</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -989,13 +1144,16 @@
       <c r="D6">
         <v>1311333</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1003,13 +1161,16 @@
       <c r="D7">
         <v>1334538</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1017,13 +1178,16 @@
       <c r="D8">
         <v>53603</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1031,13 +1195,16 @@
       <c r="D9">
         <v>-287150</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1045,13 +1212,16 @@
       <c r="D10">
         <v>-25802</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1059,13 +1229,16 @@
       <c r="D11">
         <v>-1112261</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1073,13 +1246,16 @@
       <c r="D12">
         <v>39187</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1087,13 +1263,16 @@
       <c r="D13">
         <v>139128</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -1101,13 +1280,16 @@
       <c r="D14">
         <v>2313929</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1115,13 +1297,16 @@
       <c r="D15">
         <v>1832902</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1129,13 +1314,16 @@
       <c r="D16">
         <v>481027</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1143,13 +1331,16 @@
       <c r="D17">
         <v>2313929</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -1157,13 +1348,16 @@
       <c r="D18">
         <v>1060069</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -1171,13 +1365,16 @@
       <c r="D19">
         <v>141489</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -1185,13 +1382,16 @@
       <c r="D20">
         <v>505437</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -1199,13 +1399,16 @@
       <c r="D21">
         <v>535482</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -1213,13 +1416,16 @@
       <c r="D22">
         <v>1406479</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -1227,13 +1433,16 @@
       <c r="D23">
         <v>-440175</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -1241,13 +1450,16 @@
       <c r="D24">
         <v>44879</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -1255,13 +1467,16 @@
       <c r="D25">
         <v>-452414</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -1269,13 +1484,16 @@
       <c r="D26">
         <v>-175722</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -1283,13 +1501,16 @@
       <c r="D27">
         <v>-999673</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -1297,13 +1518,16 @@
       <c r="D28">
         <v>-71204</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -1311,13 +1535,16 @@
       <c r="D29">
         <v>278255</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -1325,13 +1552,16 @@
       <c r="D30">
         <v>1832902</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -1339,13 +1569,16 @@
       <c r="D31">
         <v>1079731</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -1353,19 +1586,25 @@
       <c r="D32">
         <v>753171</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>2022</v>
       </c>
       <c r="D33">
         <v>1832902</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1375,13 +1614,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,13 +1633,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1408,13 +1650,16 @@
       <c r="D2">
         <v>13112931</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1422,13 +1667,16 @@
       <c r="D3">
         <v>699479</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1436,13 +1684,16 @@
       <c r="D4">
         <v>168669</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1450,13 +1701,16 @@
       <c r="D5">
         <v>25141</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1464,13 +1718,16 @@
       <c r="D6">
         <v>8965</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1478,13 +1735,16 @@
       <c r="D7">
         <v>71827</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1492,13 +1752,16 @@
       <c r="D8">
         <v>496612</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1506,13 +1769,16 @@
       <c r="D9">
         <v>14583624</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1520,13 +1786,16 @@
       <c r="D10">
         <v>11727321</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -1534,13 +1803,16 @@
       <c r="D11">
         <v>678886</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -1548,13 +1820,16 @@
       <c r="D12">
         <v>204870</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -1562,13 +1837,16 @@
       <c r="D13">
         <v>103589</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1576,13 +1854,16 @@
       <c r="D14">
         <v>11467</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -1590,13 +1871,16 @@
       <c r="D15">
         <v>24284</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -1604,19 +1888,25 @@
       <c r="D16">
         <v>391540</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>2022</v>
       </c>
       <c r="D17">
         <v>13141957</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1626,13 +1916,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1645,13 +1935,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1659,19 +1952,25 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>1300741</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1681,13 +1980,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1700,13 +1999,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1714,13 +2016,16 @@
       <c r="D2">
         <v>3560750</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1728,13 +2033,16 @@
       <c r="D3">
         <v>445043</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1742,13 +2050,16 @@
       <c r="D4">
         <v>4005793</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -1756,13 +2067,16 @@
       <c r="D5">
         <v>3883702</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -1770,19 +2084,25 @@
       <c r="D6">
         <v>390624</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>4274326</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1792,13 +2112,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,13 +2131,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1825,19 +2148,25 @@
       <c r="D2">
         <v>3500000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>4500000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1847,13 +2176,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1866,13 +2195,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1880,13 +2212,16 @@
       <c r="D2">
         <v>3700183</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1894,13 +2229,16 @@
       <c r="D3">
         <v>319286</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1908,13 +2246,16 @@
       <c r="D4">
         <v>-5705</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1922,13 +2263,16 @@
       <c r="D5">
         <v>4013764</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1936,13 +2280,16 @@
       <c r="D6">
         <v>777823</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1950,13 +2297,16 @@
       <c r="D7">
         <v>3240264</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1964,13 +2314,16 @@
       <c r="D8">
         <v>474620</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1978,13 +2331,16 @@
       <c r="D9">
         <v>4492707</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1992,13 +2348,16 @@
       <c r="D10">
         <v>1780907</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -2006,13 +2365,16 @@
       <c r="D11">
         <v>1228670</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -2020,13 +2382,16 @@
       <c r="D12">
         <v>-40759</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2034,13 +2399,16 @@
       <c r="D13">
         <v>2968818</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2048,13 +2416,16 @@
       <c r="D14">
         <v>1929062</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2062,13 +2433,16 @@
       <c r="D15">
         <v>2055386</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2076,19 +2450,25 @@
       <c r="D16">
         <v>913432</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>2022</v>
       </c>
       <c r="D17">
         <v>4897880</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2098,13 +2478,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2117,13 +2497,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2131,19 +2514,25 @@
       <c r="D2">
         <v>10014754</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>5014754</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2153,13 +2542,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2172,13 +2561,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2186,13 +2578,16 @@
       <c r="D2">
         <v>5146496</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2200,13 +2595,16 @@
       <c r="D3">
         <v>-1203187</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2214,13 +2612,16 @@
       <c r="D4">
         <v>3943309</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2228,13 +2629,16 @@
       <c r="D5">
         <v>6940815</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2242,19 +2646,25 @@
       <c r="D6">
         <v>-1794319</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>5146496</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2274,15 +2684,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2295,13 +2705,280 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>92279085</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>29612233</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>121891318</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>85281896</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>24692541</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>109974437</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>-481027</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2022</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2022</v>
+      </c>
+      <c r="D4">
+        <v>-1684214</v>
+      </c>
+      <c r="E4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>-505264</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>24237</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>-481027</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2309,13 +2986,16 @@
       <c r="D2">
         <v>19290507</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2323,13 +3003,16 @@
       <c r="D3">
         <v>957167</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2337,13 +3020,16 @@
       <c r="D4">
         <v>-550217</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2351,13 +3037,16 @@
       <c r="D5">
         <v>19697457</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2365,13 +3054,16 @@
       <c r="D6">
         <v>20697953</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2379,13 +3071,16 @@
       <c r="D7">
         <v>1508049</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2393,19 +3088,25 @@
       <c r="D8">
         <v>-471631</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>21734371</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2415,13 +3116,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2434,13 +3135,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2448,19 +3152,25 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>239846</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2470,13 +3180,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2489,13 +3199,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2503,19 +3216,25 @@
       <c r="D2">
         <v>3707538</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>3332245</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2525,13 +3244,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2544,13 +3263,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2558,19 +3280,25 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>365183</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2580,13 +3308,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2599,13 +3327,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2613,13 +3344,16 @@
       <c r="D2">
         <v>1842144</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2627,13 +3361,16 @@
       <c r="D3">
         <v>234994</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2641,13 +3378,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2655,13 +3395,16 @@
       <c r="D5">
         <v>2077138</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2669,13 +3412,16 @@
       <c r="D6">
         <v>828405</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2683,13 +3429,16 @@
       <c r="D7">
         <v>116659</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2697,19 +3446,25 @@
       <c r="D8">
         <v>176951</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>1122015</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2719,13 +3474,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2738,13 +3493,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -2752,13 +3510,16 @@
       <c r="D2">
         <v>126859</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2766,13 +3527,16 @@
       <c r="D3">
         <v>243913</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2780,13 +3544,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2794,13 +3561,16 @@
       <c r="D5">
         <v>-25372</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2808,13 +3578,16 @@
       <c r="D6">
         <v>345400</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2822,13 +3595,16 @@
       <c r="D7">
         <v>390991</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -2836,13 +3612,16 @@
       <c r="D8">
         <v>48062</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -2850,13 +3629,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -2864,13 +3646,16 @@
       <c r="D10">
         <v>-66883</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -2878,13 +3663,16 @@
       <c r="D11">
         <v>372170</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -2892,13 +3680,16 @@
       <c r="D12">
         <v>94524</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -2906,13 +3697,16 @@
       <c r="D13">
         <v>42101</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -2920,13 +3714,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -2934,13 +3731,16 @@
       <c r="D15">
         <v>-22365</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -2948,13 +3748,16 @@
       <c r="D16">
         <v>114260</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2962,13 +3765,16 @@
       <c r="D17">
         <v>4147284</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -2976,13 +3782,16 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -2990,13 +3799,16 @@
       <c r="D19">
         <v>-203657</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -3004,13 +3816,16 @@
       <c r="D20">
         <v>-754331</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -3018,13 +3833,16 @@
       <c r="D21">
         <v>3189296</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -3032,13 +3850,16 @@
       <c r="D22">
         <v>1464211</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -3046,13 +3867,16 @@
       <c r="D23">
         <v>621747</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -3060,13 +3884,16 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -3074,13 +3901,16 @@
       <c r="D25">
         <v>-517517</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -3088,13 +3918,16 @@
       <c r="D26">
         <v>1568441</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -3102,13 +3935,16 @@
       <c r="D27">
         <v>60996</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -3116,13 +3952,16 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -3130,13 +3969,16 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -3144,13 +3986,16 @@
       <c r="D30">
         <v>-21078</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -3158,13 +4003,16 @@
       <c r="D31">
         <v>39918</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -3172,13 +4020,16 @@
       <c r="D32">
         <v>6284865</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -3186,13 +4037,16 @@
       <c r="D33">
         <v>955823</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -3200,13 +4054,16 @@
       <c r="D34">
         <v>-203657</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -3214,19 +4071,25 @@
       <c r="D35">
         <v>-1407546</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>2023</v>
       </c>
       <c r="D36">
         <v>5629485</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3236,13 +4099,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3255,13 +4118,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3269,13 +4135,16 @@
       <c r="D2">
         <v>676749</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3283,13 +4152,16 @@
       <c r="D3">
         <v>-331349</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3297,13 +4169,16 @@
       <c r="D4">
         <v>345400</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3311,13 +4186,16 @@
       <c r="D5">
         <v>681110</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3325,13 +4203,16 @@
       <c r="D6">
         <v>-308940</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -3339,13 +4220,16 @@
       <c r="D7">
         <v>372170</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -3353,13 +4237,16 @@
       <c r="D8">
         <v>270219</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -3367,13 +4254,16 @@
       <c r="D9">
         <v>-155959</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -3381,13 +4271,16 @@
       <c r="D10">
         <v>114260</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -3395,13 +4288,16 @@
       <c r="D11">
         <v>8895209</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -3409,13 +4305,16 @@
       <c r="D12">
         <v>-5705913</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -3423,13 +4322,16 @@
       <c r="D13">
         <v>3189296</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -3437,13 +4339,16 @@
       <c r="D14">
         <v>4272099</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -3451,13 +4356,16 @@
       <c r="D15">
         <v>-2703658</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -3465,13 +4373,16 @@
       <c r="D16">
         <v>1568441</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -3479,13 +4390,16 @@
       <c r="D17">
         <v>411973</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -3493,13 +4407,16 @@
       <c r="D18">
         <v>-372055</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -3507,13 +4424,16 @@
       <c r="D19">
         <v>39918</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -3521,13 +4441,16 @@
       <c r="D20">
         <v>5629485</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -3535,13 +4458,16 @@
       <c r="D21">
         <v>432837</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -3549,13 +4475,16 @@
       <c r="D22">
         <v>-305978</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -3563,13 +4492,16 @@
       <c r="D23">
         <v>126859</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -3577,13 +4509,16 @@
       <c r="D24">
         <v>633048</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -3591,13 +4526,16 @@
       <c r="D25">
         <v>-242057</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -3605,13 +4543,16 @@
       <c r="D26">
         <v>390991</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -3619,13 +4560,16 @@
       <c r="D27">
         <v>228118</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -3633,13 +4577,16 @@
       <c r="D28">
         <v>-133594</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -3647,13 +4594,16 @@
       <c r="D29">
         <v>94524</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -3661,13 +4611,16 @@
       <c r="D30">
         <v>9840278</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -3675,13 +4628,16 @@
       <c r="D31">
         <v>-5692994</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -3689,13 +4645,16 @@
       <c r="D32">
         <v>4147284</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -3703,13 +4662,16 @@
       <c r="D33">
         <v>3650352</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -3717,13 +4679,16 @@
       <c r="D34">
         <v>-2186141</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -3731,13 +4696,16 @@
       <c r="D35">
         <v>1464211</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -3745,13 +4713,16 @@
       <c r="D36">
         <v>411973</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>2022</v>
@@ -3759,13 +4730,16 @@
       <c r="D37">
         <v>-350977</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>2022</v>
@@ -3773,19 +4747,25 @@
       <c r="D38">
         <v>60996</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>2022</v>
       </c>
       <c r="D39">
         <v>6284865</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/LOGS/39b47cb4-af4d-4cc7-ac2a-0c79a3780657/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/39b47cb4-af4d-4cc7-ac2a-0c79a3780657/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="109">
   <si>
     <t>rows</t>
   </si>
@@ -66,6 +66,15 @@
     <t>7</t>
   </si>
   <si>
+    <t>None Balances as above</t>
+  </si>
+  <si>
+    <t>None Bank overdraft (note 18)</t>
+  </si>
+  <si>
+    <t>None Balance as per statement of cash flows</t>
+  </si>
+  <si>
     <t>None Trade receivables</t>
   </si>
   <si>
@@ -105,16 +114,13 @@
     <t>None Prepaid subscription</t>
   </si>
   <si>
-    <t>Total Total</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>None 2022 Balance at 1 April 2022</t>
   </si>
   <si>
-    <t>None Additions</t>
+    <t>None 2023 Additions</t>
   </si>
   <si>
     <t>None Disposals</t>
@@ -339,19 +345,19 @@
     <t>Deferred tax - origination and reversal of temporary differences Aggregate income tax benefit</t>
   </si>
   <si>
-    <t>Total increase in deferred tax assets (note 16)</t>
-  </si>
-  <si>
-    <t>Total Loss before income tax benefit</t>
-  </si>
-  <si>
-    <t>Total Tax at the statutory tax rate of 30%</t>
-  </si>
-  <si>
-    <t>Total Non-deductible expenses</t>
-  </si>
-  <si>
-    <t>Total Income tax benefit</t>
+    <t>Deferred tax - origination and reversal of temporary differences increase in deferred tax assets (note 16)</t>
+  </si>
+  <si>
+    <t>Deferred tax - origination and reversal of temporary differences Loss before income tax benefit</t>
+  </si>
+  <si>
+    <t>Deferred tax - origination and reversal of temporary differences Tax at the statutory tax rate of 30%</t>
+  </si>
+  <si>
+    <t>Deferred tax - origination and reversal of temporary differences Non-deductible expenses</t>
+  </si>
+  <si>
+    <t>Deferred tax - origination and reversal of temporary differences Income tax benefit</t>
   </si>
   <si>
     <t>6</t>
@@ -869,7 +875,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -881,12 +887,12 @@
         <v>4919097</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -898,7 +904,7 @@
         <v>-511861</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -915,12 +921,12 @@
         <v>4407236</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -932,12 +938,12 @@
         <v>3760498</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -949,7 +955,7 @@
         <v>-1391972</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -966,7 +972,7 @@
         <v>2368526</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1007,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1013,12 +1019,12 @@
         <v>1627273</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1030,7 +1036,7 @@
         <v>1627273</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1065,10 +1071,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1077,15 +1083,15 @@
         <v>1574562</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1094,15 +1100,15 @@
         <v>165065</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1111,15 +1117,15 @@
         <v>-1272783</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -1128,15 +1134,15 @@
         <v>394509</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -1145,15 +1151,15 @@
         <v>1311333</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1162,15 +1168,15 @@
         <v>1334538</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1179,15 +1185,15 @@
         <v>53603</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -1196,15 +1202,15 @@
         <v>-287150</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1213,15 +1219,15 @@
         <v>-25802</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1230,15 +1236,15 @@
         <v>-1112261</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1247,15 +1253,15 @@
         <v>39187</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1264,15 +1270,15 @@
         <v>139128</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -1281,15 +1287,15 @@
         <v>2313929</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1298,15 +1304,15 @@
         <v>1832902</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1315,15 +1321,15 @@
         <v>481027</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1332,15 +1338,15 @@
         <v>2313929</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -1349,15 +1355,15 @@
         <v>1060069</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -1366,15 +1372,15 @@
         <v>141489</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -1383,15 +1389,15 @@
         <v>505437</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -1400,15 +1406,15 @@
         <v>535482</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -1417,15 +1423,15 @@
         <v>1406479</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -1434,15 +1440,15 @@
         <v>-440175</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -1451,15 +1457,15 @@
         <v>44879</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -1468,15 +1474,15 @@
         <v>-452414</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -1485,15 +1491,15 @@
         <v>-175722</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -1502,15 +1508,15 @@
         <v>-999673</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -1519,15 +1525,15 @@
         <v>-71204</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -1536,15 +1542,15 @@
         <v>278255</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -1553,15 +1559,15 @@
         <v>1832902</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -1570,15 +1576,15 @@
         <v>1079731</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -1587,15 +1593,15 @@
         <v>753171</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -1604,7 +1610,7 @@
         <v>1832902</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1645,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1651,12 +1657,12 @@
         <v>13112931</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1668,12 +1674,12 @@
         <v>699479</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1685,12 +1691,12 @@
         <v>168669</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1702,12 +1708,12 @@
         <v>25141</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1719,12 +1725,12 @@
         <v>8965</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1736,12 +1742,12 @@
         <v>71827</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1753,7 +1759,7 @@
         <v>496612</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1770,12 +1776,12 @@
         <v>14583624</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1787,12 +1793,12 @@
         <v>11727321</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1804,12 +1810,12 @@
         <v>678886</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1821,12 +1827,12 @@
         <v>204870</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1838,12 +1844,12 @@
         <v>103589</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1855,12 +1861,12 @@
         <v>11467</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1872,12 +1878,12 @@
         <v>24284</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1889,7 +1895,7 @@
         <v>391540</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1906,7 +1912,7 @@
         <v>13141957</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1941,7 +1947,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1953,12 +1959,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1970,7 +1976,7 @@
         <v>1300741</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +2011,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2017,12 +2023,12 @@
         <v>3560750</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2034,7 +2040,7 @@
         <v>445043</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2051,12 +2057,12 @@
         <v>4005793</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2068,12 +2074,12 @@
         <v>3883702</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2085,7 +2091,7 @@
         <v>390624</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2102,7 +2108,7 @@
         <v>4274326</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2137,7 +2143,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2149,12 +2155,12 @@
         <v>3500000</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2166,7 +2172,7 @@
         <v>4500000</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2207,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2213,12 +2219,12 @@
         <v>3700183</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2230,12 +2236,12 @@
         <v>319286</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -2247,7 +2253,7 @@
         <v>-5705</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2264,12 +2270,12 @@
         <v>4013764</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2281,12 +2287,12 @@
         <v>777823</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2298,12 +2304,12 @@
         <v>3240264</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -2315,12 +2321,12 @@
         <v>474620</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2332,12 +2338,12 @@
         <v>4492707</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -2349,12 +2355,12 @@
         <v>1780907</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -2366,12 +2372,12 @@
         <v>1228670</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -2383,7 +2389,7 @@
         <v>-40759</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2400,12 +2406,12 @@
         <v>2968818</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -2417,12 +2423,12 @@
         <v>1929062</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -2434,12 +2440,12 @@
         <v>2055386</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -2451,12 +2457,12 @@
         <v>913432</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -2468,7 +2474,7 @@
         <v>4897880</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2503,7 +2509,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2515,12 +2521,12 @@
         <v>10014754</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2532,7 +2538,7 @@
         <v>5014754</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2567,10 +2573,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2579,15 +2585,15 @@
         <v>5146496</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2596,15 +2602,15 @@
         <v>-1203187</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2613,15 +2619,15 @@
         <v>3943309</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2630,15 +2636,15 @@
         <v>6940815</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -2647,15 +2653,15 @@
         <v>-1794319</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2664,7 +2670,7 @@
         <v>5146496</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2674,12 +2680,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>3813586</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>3813586</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2022</v>
+      </c>
+      <c r="D5">
+        <v>1543537</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2022</v>
+      </c>
+      <c r="D6">
+        <v>-1300741</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7">
+        <v>242796</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2711,7 +2819,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2723,12 +2831,12 @@
         <v>92279085</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2740,12 +2848,12 @@
         <v>29612233</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -2757,12 +2865,12 @@
         <v>121891318</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2774,12 +2882,12 @@
         <v>85281896</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2791,12 +2899,12 @@
         <v>24692541</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2808,7 +2916,7 @@
         <v>109974437</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2951,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2855,12 +2963,12 @@
         <v>-481027</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -2872,12 +2980,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -2889,12 +2997,12 @@
         <v>-1684214</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -2906,12 +3014,12 @@
         <v>-505264</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2923,12 +3031,12 @@
         <v>24237</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2940,7 +3048,7 @@
         <v>-481027</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2975,7 +3083,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2987,12 +3095,12 @@
         <v>19290507</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -3004,12 +3112,12 @@
         <v>957167</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -3021,7 +3129,7 @@
         <v>-550217</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3038,12 +3146,12 @@
         <v>19697457</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -3055,12 +3163,12 @@
         <v>20697953</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -3072,12 +3180,12 @@
         <v>1508049</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -3089,7 +3197,7 @@
         <v>-471631</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3106,7 +3214,7 @@
         <v>21734371</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3141,7 +3249,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -3153,12 +3261,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -3170,7 +3278,7 @@
         <v>239846</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3313,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -3217,12 +3325,12 @@
         <v>3707538</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -3234,7 +3342,7 @@
         <v>3332245</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3269,7 +3377,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -3281,12 +3389,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -3298,7 +3406,7 @@
         <v>365183</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3333,7 +3441,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -3345,12 +3453,12 @@
         <v>1842144</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -3362,12 +3470,12 @@
         <v>234994</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -3379,12 +3487,12 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -3396,12 +3504,12 @@
         <v>2077138</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -3413,12 +3521,12 @@
         <v>828405</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -3430,12 +3538,12 @@
         <v>116659</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -3447,12 +3555,12 @@
         <v>176951</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -3464,7 +3572,7 @@
         <v>1122015</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3499,10 +3607,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -3511,15 +3619,15 @@
         <v>126859</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3528,15 +3636,15 @@
         <v>243913</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3545,15 +3653,15 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3562,15 +3670,15 @@
         <v>-25372</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3579,15 +3687,15 @@
         <v>345400</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3596,15 +3704,15 @@
         <v>390991</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -3613,15 +3721,15 @@
         <v>48062</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -3630,15 +3738,15 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -3647,15 +3755,15 @@
         <v>-66883</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -3664,15 +3772,15 @@
         <v>372170</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -3681,15 +3789,15 @@
         <v>94524</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -3698,15 +3806,15 @@
         <v>42101</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -3715,15 +3823,15 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -3732,15 +3840,15 @@
         <v>-22365</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -3749,15 +3857,15 @@
         <v>114260</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -3766,15 +3874,15 @@
         <v>4147284</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -3783,15 +3891,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -3800,15 +3908,15 @@
         <v>-203657</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -3817,15 +3925,15 @@
         <v>-754331</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -3834,15 +3942,15 @@
         <v>3189296</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -3851,15 +3959,15 @@
         <v>1464211</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -3868,15 +3976,15 @@
         <v>621747</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -3885,15 +3993,15 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -3902,15 +4010,15 @@
         <v>-517517</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -3919,15 +4027,15 @@
         <v>1568441</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -3936,15 +4044,15 @@
         <v>60996</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -3953,15 +4061,15 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -3970,15 +4078,15 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -3987,15 +4095,15 @@
         <v>-21078</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -4004,15 +4112,15 @@
         <v>39918</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -4021,15 +4129,15 @@
         <v>6284865</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -4038,15 +4146,15 @@
         <v>955823</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -4055,15 +4163,15 @@
         <v>-203657</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -4072,15 +4180,15 @@
         <v>-1407546</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -4089,7 +4197,7 @@
         <v>5629485</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4124,7 +4232,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -4136,12 +4244,12 @@
         <v>676749</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -4153,7 +4261,7 @@
         <v>-331349</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4170,12 +4278,12 @@
         <v>345400</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -4187,12 +4295,12 @@
         <v>681110</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -4204,7 +4312,7 @@
         <v>-308940</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4221,12 +4329,12 @@
         <v>372170</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -4238,12 +4346,12 @@
         <v>270219</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -4255,7 +4363,7 @@
         <v>-155959</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4272,12 +4380,12 @@
         <v>114260</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -4289,12 +4397,12 @@
         <v>8895209</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -4306,7 +4414,7 @@
         <v>-5705913</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4323,12 +4431,12 @@
         <v>3189296</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -4340,12 +4448,12 @@
         <v>4272099</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -4357,7 +4465,7 @@
         <v>-2703658</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4374,12 +4482,12 @@
         <v>1568441</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -4391,12 +4499,12 @@
         <v>411973</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -4408,7 +4516,7 @@
         <v>-372055</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4425,7 +4533,7 @@
         <v>39918</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4442,12 +4550,12 @@
         <v>5629485</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -4459,12 +4567,12 @@
         <v>432837</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -4476,7 +4584,7 @@
         <v>-305978</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4493,12 +4601,12 @@
         <v>126859</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -4510,12 +4618,12 @@
         <v>633048</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -4527,7 +4635,7 @@
         <v>-242057</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4544,12 +4652,12 @@
         <v>390991</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -4561,12 +4669,12 @@
         <v>228118</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -4578,7 +4686,7 @@
         <v>-133594</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4595,12 +4703,12 @@
         <v>94524</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -4612,12 +4720,12 @@
         <v>9840278</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -4629,7 +4737,7 @@
         <v>-5692994</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4646,12 +4754,12 @@
         <v>4147284</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -4663,12 +4771,12 @@
         <v>3650352</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -4680,7 +4788,7 @@
         <v>-2186141</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4697,12 +4805,12 @@
         <v>1464211</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -4714,12 +4822,12 @@
         <v>411973</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -4731,7 +4839,7 @@
         <v>-350977</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4748,7 +4856,7 @@
         <v>60996</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4765,7 +4873,7 @@
         <v>6284865</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
